--- a/xlsx/美国独立战争_intext.xlsx
+++ b/xlsx/美国独立战争_intext.xlsx
@@ -15,27 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
   <si>
     <t>美国独立战争</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E9%8E%AE%E5%9C%8D%E5%9F%8E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>約克鎮圍城戰役</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国独立战争</t>
+    <t>约克镇围城战役</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%80%AB%E9%A0%93%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>特倫頓戰役</t>
+    <t>特伦顿战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%85%8B%E5%B1%B1%E6%88%98%E5%BD%B9</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>長島會戰</t>
+    <t>长岛会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E7%A6%8F%E5%BE%B7%E7%B8%A3%E5%BA%9C%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>吉爾福德縣府戰役</t>
+    <t>吉尔福德县府战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭共和國</t>
+    <t>荷兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%8A%A0%E5%B8%95%E8%92%82%E5%8D%97</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%9A%87%E9%BB%A8</t>
   </si>
   <si>
-    <t>保皇黨</t>
+    <t>保皇党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A3%AE%E5%82%AD%E5%85%B5</t>
   </si>
   <si>
-    <t>黑森傭兵</t>
+    <t>黑森佣兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%8C%E6%95%A6%E5%85%A7%E7%88%BE%C2%B7%E6%A0%BC%E9%80%A3</t>
   </si>
   <si>
-    <t>彌敦內爾·格連</t>
+    <t>弥敦内尔·格连</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E9%9B%B7%E8%82%96%C2%B7%E8%93%8B%E8%8C%A8</t>
   </si>
   <si>
-    <t>霍雷肖·蓋茨</t>
+    <t>霍雷肖·盖茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%B0%9A%E5%8D%9A%E4%BC%AF%E7%88%B5</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E4%BA%A1</t>
   </si>
   <si>
-    <t>陣亡</t>
+    <t>阵亡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%99%AE%E8%8B%8F%E4%B8%B9</t>
@@ -293,61 +293,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E4%BB%A3%E4%BD%95%E5%A5%A7%E5%AD%90%E7%88%B5%E5%A8%81%E5%BB%89%C2%B7%E4%BD%95%E5%A5%A7</t>
   </si>
   <si>
-    <t>第五代何奧子爵威廉·何奧</t>
+    <t>第五代何奥子爵威廉·何奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E9%A6%AC%E5%A3%AB%C2%B7%E8%93%8B%E5%A5%87</t>
   </si>
   <si>
-    <t>湯馬士·蓋奇</t>
+    <t>汤马士·盖奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%85%8B%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>亨利·克林頓</t>
+    <t>亨利·克林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BB%A3%E5%BA%B7%E6%B2%83%E5%88%A9%E6%96%AF%E4%BE%AF%E7%88%B5%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E5%BA%B7%E6%B2%83%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>第一代康沃利斯侯爵查爾斯·康沃利斯</t>
+    <t>第一代康沃利斯侯爵查尔斯·康沃利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BC%AF%E6%88%88%E5%9B%A0</t>
   </si>
   <si>
-    <t>約翰·伯戈因</t>
+    <t>约翰·伯戈因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BB%A3%E4%BD%95%E5%A5%A7%E4%BC%AF%E7%88%B5%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E4%BD%95%E5%A5%A7</t>
   </si>
   <si>
-    <t>第一代何奧伯爵理查德·何奧</t>
+    <t>第一代何奥伯爵理查德·何奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E6%88%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>波士頓戰場</t>
+    <t>波士顿战场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>加拿大戰役</t>
+    <t>加拿大战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%8F%8A%E6%96%B0%E6%BE%A4%E8%A5%BF%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>紐約及新澤西戰役</t>
+    <t>纽约及新泽西战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%89%98%E5%8A%A0%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>薩拉托加戰役</t>
+    <t>萨拉托加战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philadelphia_campaign</t>
@@ -383,19 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -413,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>重商主義</t>
+    <t>重商主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E5%AE%89%E4%BA%BA</t>
@@ -425,31 +419,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>皇家海軍</t>
+    <t>皇家海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%88%86%E9%90%98%E4%BA%BA</t>
   </si>
   <si>
-    <t>一分鐘人</t>
+    <t>一分钟人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%96%A9%E7%9A%AE%E5%85%8B%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>切薩皮克海戰</t>
+    <t>切萨皮克海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E6%B5%B7%E6%AC%8A</t>
   </si>
   <si>
-    <t>制海權</t>
+    <t>制海权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1783%E5%B9%B4%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>1783年巴黎條約</t>
+    <t>1783年巴黎条约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Loyalist_(American_Revolution)</t>
@@ -461,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8C%97%E7%BE%8E</t>
   </si>
   <si>
-    <t>英屬北美</t>
+    <t>英属北美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E5%B8%83</t>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>法國印第安人戰爭</t>
+    <t>法国印第安人战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%84%E6%96%AD</t>
@@ -611,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%82%BE%E8%8C%B6%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>波士頓傾茶事件</t>
+    <t>波士顿倾茶事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%9B%B7%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>普雷斯頓</t>
+    <t>普雷斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E5%B1%A0%E6%9D%80</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E8%8C%B6%E8%91%89%E9%BB%A8%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>波士頓茶葉黨事件</t>
+    <t>波士顿茶叶党事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
@@ -647,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E8%BC%AA</t>
   </si>
   <si>
-    <t>貨輪</t>
+    <t>货轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E</t>
   </si>
   <si>
-    <t>馬薩諸塞</t>
+    <t>马萨诸塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%BA%E5%88%B6%E6%B3%95%E6%A1%88</t>
@@ -671,25 +665,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9E</t>
   </si>
   <si>
-    <t>佐治亞</t>
+    <t>佐治亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>大陸會議</t>
+    <t>大陆会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%85%B5</t>
@@ -701,19 +695,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%BC%A2%E8%80%83%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·漢考克</t>
+    <t>约翰·汉考克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%98%9F%E9%A0%93%E5%92%8C%E5%BA%B7%E7%A7%91%E5%BE%B7%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>列星頓和康科德戰役</t>
+    <t>列星顿和康科德战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%9C%8D</t>
@@ -731,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E8%93%8B%E5%A5%87</t>
   </si>
   <si>
-    <t>托馬斯·蓋奇</t>
+    <t>托马斯·盖奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%A7%91%E5%BE%B7</t>
@@ -749,19 +743,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>喬治·華盛頓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E5%8F%B8%E4%BB%A4</t>
   </si>
   <si>
-    <t>總司令</t>
+    <t>总司令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B8%E5%B8%81</t>
@@ -779,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%BB%8D</t>
   </si>
   <si>
-    <t>英軍</t>
+    <t>英军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%BA%B7%E5%BE%B7%E7%BD%97%E5%8A%A0%E5%A0%A1</t>
@@ -791,25 +782,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>哈德遜河</t>
+    <t>哈德逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9</t>
   </si>
   <si>
-    <t>理察·蒙哥馬利</t>
+    <t>理察·蒙哥马利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>蒙特利爾</t>
+    <t>蒙特利尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%86%85%E8%BF%AA%E5%85%8B%E7%89%B9%C2%B7%E9%98%BF%E8%AF%BA%E5%BE%B7</t>
@@ -827,9 +818,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8B%9E%E5%80%AB%E6%96%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>聖勞倫斯河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%B8%89%E4%B8%96</t>
   </si>
   <si>
@@ -839,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
   </si>
   <si>
-    <t>湯瑪斯·潘恩</t>
+    <t>汤玛斯·潘恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AD%98_(%E5%B0%8F%E5%86%8A%E5%AD%90)</t>
   </si>
   <si>
-    <t>常識 (小冊子)</t>
+    <t>常识 (小册子)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
@@ -857,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%89%E5%A0%A1%E5%B1%B1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>碉堡山戰役</t>
+    <t>碉堡山战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%B1%AA</t>
@@ -869,19 +857,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>長島</t>
+    <t>长岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E8%8F%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>特拉華河</t>
+    <t>特拉华河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%80%AB%E9%A0%93_(%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>特倫頓 (紐澤西州)</t>
+    <t>特伦顿 (纽泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A1%BF</t>
@@ -893,31 +881,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%88%BE%E5%B7%B4%E5%B0%BC</t>
   </si>
   <si>
-    <t>奧爾巴尼</t>
+    <t>奥尔巴尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%C2%B7%E8%81%96%E8%90%8A%E5%82%91</t>
   </si>
   <si>
-    <t>巴利·聖萊傑</t>
+    <t>巴利·圣莱杰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E8%8F%AF%E5%85%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>莫華克河</t>
+    <t>莫华克河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
   </si>
   <si>
-    <t>纽约</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%99%AE%E8%98%AD%E6%B9%96</t>
   </si>
   <si>
-    <t>尚普蘭湖</t>
+    <t>尚普兰湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%97%E5%AD%99%E6%B2%B3</t>
@@ -947,9 +932,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
   </si>
   <si>
-    <t>费城</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%B0%BC%E8%BF%AA%E5%85%8B%E7%89%B9%C2%B7%E9%98%BF%E8%AF%BA%E5%BE%B7</t>
   </si>
   <si>
@@ -959,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F</t>
@@ -971,25 +953,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%BC%B7</t>
   </si>
   <si>
-    <t>列強</t>
+    <t>列强</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80</t>
   </si>
   <si>
-    <t>直布羅陀</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E5%9C%8D%E6%88%B0</t>
   </si>
   <si>
-    <t>包圍戰</t>
+    <t>包围战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%88%98</t>
@@ -1001,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>佐治亞州</t>
+    <t>佐治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%87%A1%E7%B4%8D</t>
   </si>
   <si>
-    <t>薩凡納</t>
+    <t>萨凡纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%E9%A1%BF_(%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
@@ -1019,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E5%BA%B7%E7%93%A6%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>查爾斯·康瓦利斯</t>
+    <t>查尔斯·康瓦利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E7%99%BB</t>
@@ -1043,37 +1022,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%BD%AD%E6%96%AF%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>考彭斯戰役</t>
+    <t>考彭斯战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅來納州</t>
+    <t>北卡罗来纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E7%A6%8F%E5%BE%B7</t>
   </si>
   <si>
-    <t>吉爾福德</t>
+    <t>吉尔福德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>維珍尼亞</t>
+    <t>维珍尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>吉爾斯頓</t>
+    <t>吉尔斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%B3%95%E8%91%89%E4%BE%AF%E7%88%B5</t>
   </si>
   <si>
-    <t>拉法葉侯爵</t>
+    <t>拉法叶侯爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%A0%BC%E6%8B%89%E6%96%AF%E4%BC%AF%E7%88%B5</t>
@@ -1085,39 +1064,30 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>西印度群島</t>
+    <t>西印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%96%A9%E7%9A%AE%E5%85%8B%E7%81%A3</t>
   </si>
   <si>
-    <t>切薩皮克灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%B0%9A%E5%8D%9A%E4%BC%AF%E7%88%B5</t>
   </si>
   <si>
-    <t>羅尚博伯爵</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E9%9F%8B%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>本傑明·韋斯特</t>
+    <t>本杰明·韦斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>巴黎和約</t>
+    <t>巴黎和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>英國議會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
@@ -1133,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>1812年戰爭</t>
+    <t>1812年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%B3%95%E8%80%B6%E7%89%B9%E4%BE%AF%E7%88%B5</t>
@@ -1145,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美洲戰爭列表</t>
+    <t>美洲战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%88%98%E4%BA%89%E5%88%97%E8%A1%A8</t>
@@ -1163,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8F%B8%E8%B5%B7%E4%B9%89</t>
@@ -1193,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -1235,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B8%A6%E7%89%87%E6%88%98%E4%BA%89</t>
@@ -1247,13 +1217,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -1277,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -1313,13 +1283,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -1343,25 +1313,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E4%B9%8B%E7%8B%90%E8%A1%8C%E5%8A%A8</t>
@@ -1373,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
+    <t>科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -1385,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -1409,37 +1379,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1452,15 +1419,6 @@
   </si>
   <si>
     <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2704,7 +2662,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -3629,7 +3587,7 @@
         <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
         <v>19</v>
@@ -3655,10 +3613,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="G64" t="n">
         <v>30</v>
@@ -3684,10 +3642,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>14</v>
@@ -3713,10 +3671,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3742,10 +3700,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3771,10 +3729,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3800,10 +3758,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3829,10 +3787,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3858,10 +3816,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3887,10 +3845,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3916,10 +3874,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3974,10 +3932,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4003,10 +3961,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4032,10 +3990,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4061,10 +4019,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4090,10 +4048,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>12</v>
@@ -4119,10 +4077,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4148,10 +4106,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4177,10 +4135,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4206,10 +4164,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4235,10 +4193,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4264,10 +4222,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4293,10 +4251,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4322,10 +4280,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4351,10 +4309,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -4380,10 +4338,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4409,10 +4367,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4438,10 +4396,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4467,10 +4425,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4496,10 +4454,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>8</v>
@@ -4525,10 +4483,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4554,10 +4512,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4583,10 +4541,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4612,10 +4570,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4641,10 +4599,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4670,10 +4628,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4699,10 +4657,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4728,10 +4686,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -4757,10 +4715,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4786,10 +4744,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4815,10 +4773,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4844,10 +4802,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4873,10 +4831,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -4902,10 +4860,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4931,10 +4889,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4960,10 +4918,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4989,10 +4947,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5018,10 +4976,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5047,10 +5005,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5076,10 +5034,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>5</v>
@@ -5105,10 +5063,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5134,10 +5092,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5163,10 +5121,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>13</v>
@@ -5192,10 +5150,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5221,10 +5179,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5250,10 +5208,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5279,10 +5237,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5308,10 +5266,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5337,10 +5295,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5366,10 +5324,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -5395,10 +5353,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5424,10 +5382,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>5</v>
@@ -5453,10 +5411,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>14</v>
@@ -5482,10 +5440,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5511,10 +5469,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5540,10 +5498,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5569,10 +5527,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5598,10 +5556,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5627,10 +5585,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5656,10 +5614,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>42</v>
@@ -5714,10 +5672,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>6</v>
@@ -5743,10 +5701,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5772,10 +5730,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5801,10 +5759,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -5830,10 +5788,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5859,10 +5817,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5888,10 +5846,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>48</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5917,10 +5875,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5946,10 +5904,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5975,10 +5933,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6004,10 +5962,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6033,10 +5991,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6062,10 +6020,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -6091,10 +6049,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6120,10 +6078,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6149,10 +6107,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6178,10 +6136,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6207,10 +6165,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6236,10 +6194,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6265,10 +6223,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6323,10 +6281,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6352,10 +6310,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6381,10 +6339,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6410,10 +6368,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6439,10 +6397,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6468,10 +6426,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6497,10 +6455,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6526,10 +6484,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6555,10 +6513,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -6584,10 +6542,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -6613,10 +6571,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6642,10 +6600,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>16</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6671,10 +6629,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6700,10 +6658,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6729,10 +6687,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -6787,10 +6745,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6816,10 +6774,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6845,10 +6803,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -6874,10 +6832,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6903,10 +6861,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6932,10 +6890,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6961,10 +6919,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6990,10 +6948,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7019,10 +6977,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7048,10 +7006,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7077,10 +7035,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F182" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G182" t="n">
         <v>7</v>
@@ -7106,10 +7064,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7135,10 +7093,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7193,10 +7151,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7222,10 +7180,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7251,10 +7209,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7280,10 +7238,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7309,10 +7267,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7338,10 +7296,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7367,10 +7325,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7425,10 +7383,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>168</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7454,10 +7412,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7483,10 +7441,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7512,10 +7470,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7541,10 +7499,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F198" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7570,10 +7528,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7599,10 +7557,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7628,10 +7586,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G201" t="n">
         <v>5</v>
@@ -7657,10 +7615,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G202" t="n">
         <v>49</v>
@@ -7686,10 +7644,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7715,10 +7673,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7744,10 +7702,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7773,10 +7731,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7802,10 +7760,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7831,10 +7789,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7860,10 +7818,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7889,10 +7847,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7918,10 +7876,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7947,10 +7905,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7976,10 +7934,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8005,10 +7963,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8034,10 +7992,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8063,10 +8021,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8092,10 +8050,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8121,10 +8079,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8150,10 +8108,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8179,10 +8137,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8208,10 +8166,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8237,10 +8195,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8266,10 +8224,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8295,10 +8253,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8324,10 +8282,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8353,10 +8311,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8382,10 +8340,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8411,10 +8369,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8440,10 +8398,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8469,10 +8427,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8498,10 +8456,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8527,10 +8485,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8556,10 +8514,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8585,10 +8543,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8614,10 +8572,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8643,10 +8601,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8672,10 +8630,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8701,10 +8659,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8730,10 +8688,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8759,10 +8717,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8788,10 +8746,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8817,10 +8775,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8846,10 +8804,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8875,10 +8833,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8904,10 +8862,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8933,10 +8891,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8962,10 +8920,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8991,10 +8949,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9020,10 +8978,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9049,10 +9007,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9061,64 +9019,6 @@
         <v>4</v>
       </c>
       <c r="I250" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1</v>
-      </c>
-      <c r="D251" t="n">
-        <v>250</v>
-      </c>
-      <c r="E251" t="s">
-        <v>479</v>
-      </c>
-      <c r="F251" t="s">
-        <v>480</v>
-      </c>
-      <c r="G251" t="n">
-        <v>8</v>
-      </c>
-      <c r="H251" t="s">
-        <v>4</v>
-      </c>
-      <c r="I251" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>0</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1</v>
-      </c>
-      <c r="D252" t="n">
-        <v>251</v>
-      </c>
-      <c r="E252" t="s">
-        <v>479</v>
-      </c>
-      <c r="F252" t="s">
-        <v>481</v>
-      </c>
-      <c r="G252" t="n">
-        <v>1</v>
-      </c>
-      <c r="H252" t="s">
-        <v>4</v>
-      </c>
-      <c r="I252" t="n">
         <v>3</v>
       </c>
     </row>
